--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwilchek\Documents\GitHub\leketgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwilchek\Documents\GitHub\LeketGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
-  <si>
-    <t>taskId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -49,12 +46,6 @@
   </si>
   <si>
     <t>region</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
   </si>
   <si>
     <t>volunteerUid</t>
@@ -1064,20 +1055,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,925 +1128,727 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2">
-        <v>32.129491999999999</v>
-      </c>
-      <c r="L2">
-        <v>34.859082000000001</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3">
-        <v>32.172255999999997</v>
-      </c>
-      <c r="L3">
-        <v>34.928049000000001</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="N4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>32.089109000000001</v>
-      </c>
-      <c r="L4">
-        <v>34.861843</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="P4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C8" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5">
-        <v>32.167413000000003</v>
-      </c>
-      <c r="L5">
-        <v>34.844175999999997</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F21" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6">
-        <v>32.140213000000003</v>
-      </c>
-      <c r="L6">
-        <v>34.842005999999998</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7">
-        <v>32.178849999999997</v>
-      </c>
-      <c r="L7">
-        <v>34.905129000000002</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8">
-        <v>32.196536999999999</v>
-      </c>
-      <c r="L8">
-        <v>34.880737000000003</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9">
-        <v>32.129491999999999</v>
-      </c>
-      <c r="L9">
-        <v>34.859082000000001</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10">
-        <v>32.172255999999997</v>
-      </c>
-      <c r="L10">
-        <v>34.928049000000001</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>32.089109000000001</v>
-      </c>
-      <c r="L11">
-        <v>34.861843</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>32.167413000000003</v>
-      </c>
-      <c r="L12">
-        <v>34.844175999999997</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>32.140213000000003</v>
-      </c>
-      <c r="L13">
-        <v>34.842005999999998</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14">
-        <v>32.178849999999997</v>
-      </c>
-      <c r="L14">
-        <v>34.905129000000002</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15">
-        <v>32.196536999999999</v>
-      </c>
-      <c r="L15">
-        <v>34.880737000000003</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16">
-        <v>32.129491999999999</v>
-      </c>
-      <c r="L16">
-        <v>34.859082000000001</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17">
-        <v>32.172255999999997</v>
-      </c>
-      <c r="L17">
-        <v>34.928049000000001</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>32.089109000000001</v>
-      </c>
-      <c r="L18">
-        <v>34.861843</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19">
-        <v>32.167413000000003</v>
-      </c>
-      <c r="L19">
-        <v>34.844175999999997</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20">
-        <v>32.140213000000003</v>
-      </c>
-      <c r="L20">
-        <v>34.842005999999998</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21">
-        <v>32.178849999999997</v>
-      </c>
-      <c r="L21">
-        <v>34.905129000000002</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22">
-        <v>32.196536999999999</v>
-      </c>
-      <c r="L22">
-        <v>34.880737000000003</v>
-      </c>
-      <c r="N22" t="b">
+        <v>26</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="38">
   <si>
     <t>name</t>
   </si>
@@ -48,39 +48,6 @@
     <t>region</t>
   </si>
   <si>
-    <t>volunteerUid</t>
-  </si>
-  <si>
-    <t>reportFilled</t>
-  </si>
-  <si>
-    <t>reportFieldNum</t>
-  </si>
-  <si>
-    <t>foodDesc1</t>
-  </si>
-  <si>
-    <t>foodContainerType1</t>
-  </si>
-  <si>
-    <t>foodContainerQuantity1</t>
-  </si>
-  <si>
-    <t>foodQuantity1</t>
-  </si>
-  <si>
-    <t>foodDesc2</t>
-  </si>
-  <si>
-    <t>foodContainerType2</t>
-  </si>
-  <si>
-    <t>foodContainerQuantity2</t>
-  </si>
-  <si>
-    <t>foodQuantity2</t>
-  </si>
-  <si>
     <t>מאפיית ג'ייקובס</t>
   </si>
   <si>
@@ -102,21 +69,6 @@
     <t>שרון</t>
   </si>
   <si>
-    <t>hBlwG5ccrLgmWsLqOyAyztQYsun1</t>
-  </si>
-  <si>
-    <t>מאפים</t>
-  </si>
-  <si>
-    <t>שקית</t>
-  </si>
-  <si>
-    <t>לחם</t>
-  </si>
-  <si>
-    <t>שק</t>
-  </si>
-  <si>
     <t>בנדיקט מתחם קניון G + מאפיית שמו קניון G</t>
   </si>
   <si>
@@ -141,9 +93,6 @@
     <t>0545-213164</t>
   </si>
   <si>
-    <t>קרטון</t>
-  </si>
-  <si>
     <t>מאפיית המשפחה</t>
   </si>
   <si>
@@ -184,75 +133,15 @@
   </si>
   <si>
     <t>0545-213168</t>
-  </si>
-  <si>
-    <t>2019-06-06</t>
-  </si>
-  <si>
-    <t>2019-06-07</t>
-  </si>
-  <si>
-    <t>2019-06-08</t>
-  </si>
-  <si>
-    <t>2019-06-09</t>
-  </si>
-  <si>
-    <t>2019-06-10</t>
-  </si>
-  <si>
-    <t>2019-06-11</t>
-  </si>
-  <si>
-    <t>2019-06-12</t>
-  </si>
-  <si>
-    <t>2019-06-13</t>
-  </si>
-  <si>
-    <t>2019-06-14</t>
-  </si>
-  <si>
-    <t>2019-06-15</t>
-  </si>
-  <si>
-    <t>2019-06-16</t>
-  </si>
-  <si>
-    <t>2019-06-17</t>
-  </si>
-  <si>
-    <t>2019-06-18</t>
-  </si>
-  <si>
-    <t>2019-06-19</t>
-  </si>
-  <si>
-    <t>2019-06-20</t>
-  </si>
-  <si>
-    <t>2019-06-21</t>
-  </si>
-  <si>
-    <t>2019-06-22</t>
-  </si>
-  <si>
-    <t>2019-06-23</t>
-  </si>
-  <si>
-    <t>2019-06-24</t>
-  </si>
-  <si>
-    <t>2019-06-25</t>
-  </si>
-  <si>
-    <t>2019-06-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,7 +622,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1055,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +956,7 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,762 +984,618 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
+      <c r="B2" s="2">
+        <v>43622</v>
       </c>
       <c r="C2" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43623</v>
       </c>
       <c r="C3" s="1">
         <v>0.89583333333333337</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43624</v>
       </c>
       <c r="C4" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
+      <c r="B5" s="2">
+        <v>43625</v>
       </c>
       <c r="C5" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43626</v>
       </c>
       <c r="C6" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43627</v>
       </c>
       <c r="C7" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43628</v>
       </c>
       <c r="C8" s="1">
         <v>0.89583333333333337</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43629</v>
       </c>
       <c r="C9" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43630</v>
       </c>
       <c r="C10" s="1">
         <v>0.89583333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43631</v>
       </c>
       <c r="C11" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
+      <c r="B12" s="2">
+        <v>43632</v>
       </c>
       <c r="C12" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43633</v>
       </c>
       <c r="C13" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43634</v>
       </c>
       <c r="C14" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43635</v>
       </c>
       <c r="C15" s="1">
         <v>0.89583333333333337</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43636</v>
       </c>
       <c r="C16" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43637</v>
       </c>
       <c r="C17" s="1">
         <v>0.89583333333333337</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43638</v>
       </c>
       <c r="C18" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
+      <c r="B19" s="2">
+        <v>43639</v>
       </c>
       <c r="C19" s="1">
         <v>0.85416666666666663</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43640</v>
       </c>
       <c r="C20" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43641</v>
       </c>
       <c r="C21" s="1">
         <v>0.91666666666666663</v>
       </c>
       <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43642</v>
       </c>
       <c r="C22" s="1">
         <v>0.89583333333333337</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -48,24 +48,15 @@
     <t>region</t>
   </si>
   <si>
-    <t>מאפיית ג'ייקובס</t>
-  </si>
-  <si>
     <t>רמת השרון</t>
   </si>
   <si>
     <t>החרושת 19</t>
   </si>
   <si>
-    <t>0545-213162</t>
-  </si>
-  <si>
     <t>אושרית</t>
   </si>
   <si>
-    <t>נא לא לאחר</t>
-  </si>
-  <si>
     <t>שרון</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>וייצמן 207</t>
   </si>
   <si>
-    <t>0545-213163</t>
-  </si>
-  <si>
     <t>טוצ'קה</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t>יצחק רבין 6</t>
   </si>
   <si>
-    <t>0545-213164</t>
-  </si>
-  <si>
     <t>מאפיית המשפחה</t>
   </si>
   <si>
@@ -102,27 +87,15 @@
     <t>סוקולוב 34</t>
   </si>
   <si>
-    <t>0545-213165</t>
-  </si>
-  <si>
-    <t>מאפיית לחמים רמת השרון</t>
-  </si>
-  <si>
     <t>אוסישקין 23</t>
   </si>
   <si>
-    <t>0545-213166</t>
-  </si>
-  <si>
     <t>צ'וקה - סניף קניון ערים כפ"ס</t>
   </si>
   <si>
     <t>ברל כצנלסון 14</t>
   </si>
   <si>
-    <t>0545-213167</t>
-  </si>
-  <si>
     <t>זקס בייקרי רעננה</t>
   </si>
   <si>
@@ -132,7 +105,43 @@
     <t>החרושת 16</t>
   </si>
   <si>
-    <t>0545-213168</t>
+    <t>נא לא לאחר.</t>
+  </si>
+  <si>
+    <t>0545213162</t>
+  </si>
+  <si>
+    <t>ארומה הרצליה</t>
+  </si>
+  <si>
+    <t>מאפיית לחם אופים רמת השרון</t>
+  </si>
+  <si>
+    <t>קניון רננים</t>
+  </si>
+  <si>
+    <t>רולדין סניף כפר סבא הירוקה</t>
+  </si>
+  <si>
+    <t>קייטרינג נורקייט</t>
+  </si>
+  <si>
+    <t>אלינ'ס בר לחמים נשיאים + עקיבא</t>
+  </si>
+  <si>
+    <t>הטאבון והמנגל</t>
+  </si>
+  <si>
+    <t>מאפיית שיבולת הארץ</t>
+  </si>
+  <si>
+    <t>מאפיית ג'ייקוב'ס</t>
+  </si>
+  <si>
+    <t>לחם ארז - הרצליה</t>
+  </si>
+  <si>
+    <t>שופרסל הרצליה</t>
   </si>
 </sst>
 </file>
@@ -140,7 +149,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -619,10 +628,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -944,19 +954,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="4" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,617 +999,2487 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43622</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43622</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43622</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43622</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43622</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>43622</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43627</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43628</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43629</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43630</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43631</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43632</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43633</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43634</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43635</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43636</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43637</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43638</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43639</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B20" s="1">
+        <v>43640</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2">
-        <v>43623</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43624</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B21" s="1">
+        <v>43641</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.83333333333333337</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43625</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43626</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43627</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43628</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43629</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43630</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43631</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43632</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43633</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43634</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43635</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43636</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43637</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43638</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43639</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43640</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43641</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.91666666666666663</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43642</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43643</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43643</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B25" s="1">
+        <v>43643</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
+      <c r="B26" s="1">
+        <v>43643</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43643</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43643</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43644</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43644</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43644</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43644</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43644</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43645</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43645</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43645</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="H21" t="s">
+      <c r="B37" s="1">
+        <v>43645</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="I21" t="s">
+      <c r="E37" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43646</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43646</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43646</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43646</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43647</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43647</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43647</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2">
-        <v>43642</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B45" s="1">
+        <v>43647</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43648</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43648</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43648</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43648</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C54" s="3">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43649</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43650</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43650</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43650</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>35</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B63" s="1">
+        <v>43650</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>36</v>
       </c>
-      <c r="F22" t="s">
+      <c r="B64" s="1">
+        <v>43650</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>37</v>
       </c>
-      <c r="G22" t="s">
+      <c r="B65" s="1">
+        <v>43651</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43651</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43651</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43652</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43652</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43652</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="s">
+      <c r="B71" s="1">
+        <v>43652</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D71" t="s">
         <v>14</v>
       </c>
-      <c r="I22" t="s">
+      <c r="E71" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43652</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43653</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43654</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43655</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43656</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43657</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43658</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43659</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43660</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43661</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43662</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43663</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43664</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43665</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43666</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>החרושת 19</t>
   </si>
   <si>
-    <t>אושרית</t>
-  </si>
-  <si>
     <t>שרון</t>
   </si>
   <si>
@@ -142,6 +139,111 @@
   </si>
   <si>
     <t>שופרסל הרצליה</t>
+  </si>
+  <si>
+    <t>שירה</t>
+  </si>
+  <si>
+    <t>עלמא</t>
+  </si>
+  <si>
+    <t>אלה</t>
+  </si>
+  <si>
+    <t>ליה</t>
+  </si>
+  <si>
+    <t>אליעזר</t>
+  </si>
+  <si>
+    <t>מאיר</t>
+  </si>
+  <si>
+    <t>עדי</t>
+  </si>
+  <si>
+    <t>יואב</t>
+  </si>
+  <si>
+    <t>בר</t>
+  </si>
+  <si>
+    <t>רועי</t>
+  </si>
+  <si>
+    <t>אלון</t>
+  </si>
+  <si>
+    <t>מתן</t>
+  </si>
+  <si>
+    <t>אסתר</t>
+  </si>
+  <si>
+    <t>חגית</t>
+  </si>
+  <si>
+    <t>גולן</t>
+  </si>
+  <si>
+    <t>אורי</t>
+  </si>
+  <si>
+    <t>יוסי</t>
+  </si>
+  <si>
+    <t>0502664019</t>
+  </si>
+  <si>
+    <t>0545213131</t>
+  </si>
+  <si>
+    <t>0525215684</t>
+  </si>
+  <si>
+    <t>0503685938</t>
+  </si>
+  <si>
+    <t>0545948383</t>
+  </si>
+  <si>
+    <t>0525948438</t>
+  </si>
+  <si>
+    <t>0545445069</t>
+  </si>
+  <si>
+    <t>0523145678</t>
+  </si>
+  <si>
+    <t>0546849345</t>
+  </si>
+  <si>
+    <t>0523456744</t>
+  </si>
+  <si>
+    <t>0548323497</t>
+  </si>
+  <si>
+    <t>0502249985</t>
+  </si>
+  <si>
+    <t>0502249993</t>
+  </si>
+  <si>
+    <t>0526595948</t>
+  </si>
+  <si>
+    <t>0505847383</t>
+  </si>
+  <si>
+    <t>0523458454</t>
+  </si>
+  <si>
+    <t>נא לא לאחר. להתקשר לפני ההגעה ולהגיע מהכניסה האחורית.</t>
+  </si>
+  <si>
+    <t>להתקשר לוודא שנשאר אוכל.</t>
   </si>
 </sst>
 </file>
@@ -954,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,7 +1072,7 @@
     <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,132 +1101,128 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>43622</v>
+        <v>43678</v>
       </c>
       <c r="C2" s="3">
         <v>0.86458333333333337</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" s="1">
-        <v>43622</v>
+        <v>43678</v>
       </c>
       <c r="C3" s="3">
         <v>0.89583333333333337</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
       <c r="B4" s="1">
-        <v>43622</v>
+        <v>43678</v>
       </c>
       <c r="C4" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
       <c r="B5" s="1">
-        <v>43622</v>
+        <v>43678</v>
       </c>
       <c r="C5" s="3">
         <v>0.85416666666666663</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
-        <v>43622</v>
+        <v>43678</v>
       </c>
       <c r="C6" s="3">
         <v>0.83333333333333337</v>
@@ -1133,268 +1231,259 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
       <c r="B7" s="1">
-        <v>43627</v>
+        <v>43678</v>
       </c>
       <c r="C7" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>43628</v>
+        <v>43679</v>
       </c>
       <c r="C8" s="3">
         <v>0.88888888888888884</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>43629</v>
+        <v>43679</v>
       </c>
       <c r="C9" s="3">
         <v>0.875</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>43630</v>
+        <v>43679</v>
       </c>
       <c r="C10" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>43631</v>
+        <v>43679</v>
       </c>
       <c r="C11" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>43632</v>
+        <v>43679</v>
       </c>
       <c r="C12" s="3">
         <v>0.9375</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>43633</v>
+        <v>43679</v>
       </c>
       <c r="C13" s="3">
         <v>0.8125</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
-        <v>43634</v>
+        <v>43680</v>
       </c>
       <c r="C14" s="3">
         <v>0.86111111111111116</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
-        <v>43635</v>
+        <v>43680</v>
       </c>
       <c r="C15" s="3">
         <v>0.83333333333333337</v>
@@ -1403,234 +1492,230 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>43636</v>
+        <v>43680</v>
       </c>
       <c r="C16" s="3">
         <v>0.625</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
-        <v>43637</v>
+        <v>43680</v>
       </c>
       <c r="C17" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>43638</v>
+        <v>43680</v>
       </c>
       <c r="C18" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
       <c r="B19" s="1">
-        <v>43639</v>
+        <v>43681</v>
       </c>
       <c r="C19" s="3">
         <v>0.86458333333333337</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
       <c r="B20" s="1">
-        <v>43640</v>
+        <v>43681</v>
       </c>
       <c r="C20" s="3">
         <v>0.89583333333333337</v>
       </c>
       <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
       <c r="B21" s="1">
-        <v>43641</v>
+        <v>43681</v>
       </c>
       <c r="C21" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
       <c r="B22" s="1">
-        <v>43642</v>
+        <v>43681</v>
       </c>
       <c r="C22" s="3">
         <v>0.85416666666666663</v>
       </c>
       <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>43643</v>
+        <v>43681</v>
       </c>
       <c r="C23" s="3">
         <v>0.83333333333333337</v>
@@ -1639,259 +1724,259 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
       <c r="B24" s="1">
-        <v>43643</v>
+        <v>43681</v>
       </c>
       <c r="C24" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
-        <v>43643</v>
+        <v>43681</v>
       </c>
       <c r="C25" s="3">
         <v>0.88888888888888884</v>
       </c>
       <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
-        <v>43643</v>
+        <v>43681</v>
       </c>
       <c r="C26" s="3">
         <v>0.875</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>43643</v>
+        <v>43682</v>
       </c>
       <c r="C27" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1">
-        <v>43643</v>
+        <v>43682</v>
       </c>
       <c r="C28" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>43644</v>
+        <v>43682</v>
       </c>
       <c r="C29" s="3">
         <v>0.9375</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
-        <v>43644</v>
+        <v>43682</v>
       </c>
       <c r="C30" s="3">
         <v>0.8125</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
-        <v>43644</v>
+        <v>43682</v>
       </c>
       <c r="C31" s="3">
         <v>0.86111111111111116</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1">
-        <v>43644</v>
+        <v>43683</v>
       </c>
       <c r="C32" s="3">
         <v>0.83333333333333337</v>
@@ -1900,230 +1985,230 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1">
-        <v>43644</v>
+        <v>43683</v>
       </c>
       <c r="C33" s="3">
         <v>0.625</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
-        <v>43645</v>
+        <v>43683</v>
       </c>
       <c r="C34" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
-        <v>43645</v>
+        <v>43683</v>
       </c>
       <c r="C35" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="1">
-        <v>43645</v>
+        <v>43684</v>
       </c>
       <c r="C36" s="3">
         <v>0.86458333333333337</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>43645</v>
+        <v>43684</v>
       </c>
       <c r="C37" s="3">
         <v>0.89583333333333337</v>
       </c>
       <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1">
-        <v>43646</v>
+        <v>43684</v>
       </c>
       <c r="C38" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1">
-        <v>43646</v>
+        <v>43684</v>
       </c>
       <c r="C39" s="3">
         <v>0.85416666666666663</v>
       </c>
       <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1">
-        <v>43646</v>
+        <v>43684</v>
       </c>
       <c r="C40" s="3">
         <v>0.83333333333333337</v>
@@ -2132,259 +2217,259 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
-        <v>43646</v>
+        <v>43685</v>
       </c>
       <c r="C41" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
-        <v>43647</v>
+        <v>43685</v>
       </c>
       <c r="C42" s="3">
         <v>0.88888888888888884</v>
       </c>
       <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
         <v>26</v>
       </c>
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
-        <v>43647</v>
+        <v>43685</v>
       </c>
       <c r="C43" s="3">
         <v>0.875</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
-        <v>43647</v>
+        <v>43685</v>
       </c>
       <c r="C44" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1">
-        <v>43647</v>
+        <v>43685</v>
       </c>
       <c r="C45" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1">
-        <v>43648</v>
+        <v>43686</v>
       </c>
       <c r="C46" s="3">
         <v>0.9375</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="1">
-        <v>43648</v>
+        <v>43686</v>
       </c>
       <c r="C47" s="3">
         <v>0.8125</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1">
-        <v>43648</v>
+        <v>43686</v>
       </c>
       <c r="C48" s="3">
         <v>0.86111111111111116</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1">
-        <v>43648</v>
+        <v>43686</v>
       </c>
       <c r="C49" s="3">
         <v>0.83333333333333337</v>
@@ -2393,230 +2478,230 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="1">
-        <v>43649</v>
+        <v>43686</v>
       </c>
       <c r="C50" s="3">
         <v>0.625</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1">
-        <v>43649</v>
+        <v>43686</v>
       </c>
       <c r="C51" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
-        <v>43649</v>
+        <v>43686</v>
       </c>
       <c r="C52" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1">
-        <v>43649</v>
+        <v>43687</v>
       </c>
       <c r="C53" s="3">
         <v>0.86458333333333337</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>43649</v>
+        <v>43687</v>
       </c>
       <c r="C54" s="3">
         <v>0.89583333333333337</v>
       </c>
       <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
         <v>14</v>
       </c>
-      <c r="E54" t="s">
-        <v>15</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="1">
-        <v>43649</v>
+        <v>43687</v>
       </c>
       <c r="C55" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1">
-        <v>43649</v>
+        <v>43687</v>
       </c>
       <c r="C56" s="3">
         <v>0.85416666666666663</v>
       </c>
       <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
         <v>20</v>
       </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1">
-        <v>43649</v>
+        <v>43688</v>
       </c>
       <c r="C57" s="3">
         <v>0.83333333333333337</v>
@@ -2625,259 +2710,259 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1">
-        <v>43649</v>
+        <v>43688</v>
       </c>
       <c r="C58" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="1">
-        <v>43649</v>
+        <v>43688</v>
       </c>
       <c r="C59" s="3">
         <v>0.88888888888888884</v>
       </c>
       <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
         <v>26</v>
       </c>
-      <c r="E59" t="s">
-        <v>27</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="1">
-        <v>43650</v>
+        <v>43688</v>
       </c>
       <c r="C60" s="3">
         <v>0.875</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1">
-        <v>43650</v>
+        <v>43688</v>
       </c>
       <c r="C61" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="1">
-        <v>43650</v>
+        <v>43689</v>
       </c>
       <c r="C62" s="3">
         <v>0.60416666666666663</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1">
-        <v>43650</v>
+        <v>43689</v>
       </c>
       <c r="C63" s="3">
         <v>0.9375</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1">
-        <v>43650</v>
+        <v>43689</v>
       </c>
       <c r="C64" s="3">
         <v>0.8125</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1">
-        <v>43651</v>
+        <v>43689</v>
       </c>
       <c r="C65" s="3">
         <v>0.86111111111111116</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="1">
-        <v>43651</v>
+        <v>43690</v>
       </c>
       <c r="C66" s="3">
         <v>0.83333333333333337</v>
@@ -2886,599 +2971,106 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="1">
-        <v>43651</v>
+        <v>43690</v>
       </c>
       <c r="C67" s="3">
         <v>0.625</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
-        <v>43652</v>
+        <v>43690</v>
       </c>
       <c r="C68" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G68" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1">
-        <v>43652</v>
+        <v>43690</v>
       </c>
       <c r="C69" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="1">
-        <v>43652</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="D70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1">
-        <v>43652</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
-        <v>28</v>
-      </c>
-      <c r="I71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="1">
-        <v>43652</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" t="s">
-        <v>28</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="1">
-        <v>43653</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>31</v>
-      </c>
-      <c r="B74" s="1">
-        <v>43654</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="1">
-        <v>43655</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="1">
-        <v>43656</v>
-      </c>
-      <c r="C76" s="3">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" t="s">
-        <v>28</v>
-      </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="1">
-        <v>43657</v>
-      </c>
-      <c r="C77" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" t="s">
-        <v>28</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="1">
-        <v>43658</v>
-      </c>
-      <c r="C78" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>34</v>
-      </c>
-      <c r="B79" s="1">
-        <v>43659</v>
-      </c>
-      <c r="C79" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D79" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="1">
-        <v>43660</v>
-      </c>
-      <c r="C80" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="D80" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="1">
-        <v>43661</v>
-      </c>
-      <c r="C81" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="D81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="1">
-        <v>43662</v>
-      </c>
-      <c r="C82" s="3">
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="D82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
-        <v>28</v>
-      </c>
-      <c r="I82" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" s="1">
-        <v>43663</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="1">
-        <v>43664</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="D84" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="1">
-        <v>43665</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>28</v>
-      </c>
-      <c r="I85" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="1">
-        <v>43666</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D86" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
-        <v>28</v>
-      </c>
-      <c r="I86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
